--- a/Noyau RH FPE/6. NOMENCLATURES ET AUTRES REFERENTIELS/Nomenclatures SIRH/Informations complémentaires/FIP_MODA_SERV_25.00.00.xlsx
+++ b/Noyau RH FPE/6. NOMENCLATURES ET AUTRES REFERENTIELS/Nomenclatures SIRH/Informations complémentaires/FIP_MODA_SERV_25.00.00.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\balidfs1\onp\ONP\CISIRH\03-BARRI\REFERENTIELS\NOYAU\1-20250704_25.00.00\8-Informations complémentaires\Correspondance codes FIP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\03-BARRI\VERSIONS NOYAU DIFFUSEES\20250704_25.00.00\8-Informations complémentaires\Correspondance codes FIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026096AB-D816-4ADC-A87D-A3CE5990F130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7547DCFE-DB86-40B1-9010-B3794C6545DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="114">
   <si>
     <t>R_FOR_IDEN05</t>
   </si>
@@ -305,9 +305,6 @@
   </si>
   <si>
     <t>MS513</t>
-  </si>
-  <si>
-    <t>TP raison théra</t>
   </si>
   <si>
     <t>TP raison thérapeutique</t>
@@ -955,7 +952,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -975,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1188,7 +1185,7 @@
         <v>9</v>
       </c>
       <c r="G9" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>38</v>
@@ -1237,7 +1234,7 @@
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="29" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:8" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -1272,7 +1269,7 @@
         <v>55</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D13" s="26" t="s">
         <v>56</v>
@@ -1284,7 +1281,7 @@
         <v>58</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H13" s="26" t="s">
         <v>25</v>
@@ -1298,7 +1295,7 @@
         <v>55</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>56</v>
@@ -1307,7 +1304,7 @@
         <v>57</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G14" s="23"/>
       <c r="H14" s="23" t="s">
@@ -1322,7 +1319,7 @@
         <v>89</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>90</v>
@@ -1436,7 +1433,7 @@
         <v>9</v>
       </c>
       <c r="G19" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>15</v>
@@ -1461,7 +1458,7 @@
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -1487,7 +1484,7 @@
         <v>78</v>
       </c>
       <c r="H21" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -1509,7 +1506,7 @@
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1532,7 +1529,7 @@
         <v>79</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H23" s="5" t="s">
         <v>38</v>
@@ -1545,23 +1542,23 @@
       <c r="B24" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="E24" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="F24" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>97</v>
-      </c>
       <c r="G24" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="H24" s="19" t="s">
         <v>105</v>
-      </c>
-      <c r="H24" s="19" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="13" customFormat="1" x14ac:dyDescent="0.25">
@@ -1572,16 +1569,16 @@
         <v>93</v>
       </c>
       <c r="C25" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="18" t="s">
         <v>103</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>96</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>104</v>
       </c>
       <c r="G25" s="16"/>
       <c r="H25" s="16" t="s">
@@ -1606,7 +1603,7 @@
         <v>88</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>44</v>
